--- a/newone.xlsx
+++ b/newone.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>fsfdsf</t>
+  </si>
+  <si>
+    <t>fsfddf</t>
+  </si>
+  <si>
+    <t>fsfsfssf</t>
+  </si>
+  <si>
+    <t>fsfsf</t>
   </si>
 </sst>
 </file>
@@ -372,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +448,34 @@
         <v>5888851</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/newone.xlsx
+++ b/newone.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="11172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="11172" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rock" sheetId="1" r:id="rId1"/>
+    <sheet name="Pop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t>fsfsf</t>
+  </si>
+  <si>
+    <t>fdfdf</t>
+  </si>
+  <si>
+    <t>fdfd</t>
+  </si>
+  <si>
+    <t>ffdfdf</t>
   </si>
 </sst>
 </file>
@@ -386,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +489,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>